--- a/data/water-usage.xlsx
+++ b/data/water-usage.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,7 +415,7 @@
         <v>21/8/2024</v>
       </c>
       <c r="B2" t="str">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -423,44 +423,12 @@
         <v>21/8/2024</v>
       </c>
       <c r="B3" t="str">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>21/8/2024</v>
-      </c>
-      <c r="B4" t="str">
-        <v>5656</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>21/8/2024</v>
-      </c>
-      <c r="B5" t="str">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>21/8/2024</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>21/8/2024</v>
-      </c>
-      <c r="B7" t="str">
-        <v>414141</v>
+        <v>7878787</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>